--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-8835-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-8835-top-by-haul.xlsx
@@ -86,7 +86,7 @@
     <t>fermiparadox</t>
   </si>
   <si>
-    <t>235 ч. 8 мин. 37 сек.</t>
+    <t>235 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -122,7 +122,7 @@
     <t>SereDim</t>
   </si>
   <si>
-    <t>153 ч. 9 мин. 22 сек.</t>
+    <t>153 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>трамвайчик</t>
   </si>
   <si>
-    <t>142 ч. 8 мин. 47 сек.</t>
+    <t>142 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>140 ч. 5 мин. 49 сек.</t>
+    <t>140 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -158,7 +158,7 @@
     <t>Джиперс_Криперс</t>
   </si>
   <si>
-    <t>115 ч. 41 мин. 0 сек.</t>
+    <t>115 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -230,7 +230,7 @@
     <t>vova1290</t>
   </si>
   <si>
-    <t>68 ч. 39 мин. 3 сек.</t>
+    <t>68 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -248,7 +248,7 @@
     <t>antoshagagarin1</t>
   </si>
   <si>
-    <t>66 ч. 16 мин. 4 сек.</t>
+    <t>66 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -293,7 +293,7 @@
     <t>pche1</t>
   </si>
   <si>
-    <t>56 ч. 58 мин. 9 сек.</t>
+    <t>56 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -338,7 +338,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>50 ч. 25 мин. 8 сек.</t>
+    <t>50 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -365,7 +365,7 @@
     <t>trackstarrr</t>
   </si>
   <si>
-    <t>47 ч. 3 мин. 15 сек.</t>
+    <t>47 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -374,7 +374,7 @@
     <t>Бейн</t>
   </si>
   <si>
-    <t>46 ч. 43 мин. 7 сек.</t>
+    <t>46 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -392,7 +392,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>46 ч. 0 мин. 56 сек.</t>
+    <t>46 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -410,7 +410,7 @@
     <t>Andzenima</t>
   </si>
   <si>
-    <t>45 ч. 10 мин. 7 сек.</t>
+    <t>45 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -428,7 +428,7 @@
     <t>Alukos</t>
   </si>
   <si>
-    <t>43 ч. 21 мин. 8 сек.</t>
+    <t>43 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -437,7 +437,7 @@
     <t>vault_dweller</t>
   </si>
   <si>
-    <t>43 ч. 6 мин. 13 сек.</t>
+    <t>43 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -500,7 +500,7 @@
     <t>dmitry117</t>
   </si>
   <si>
-    <t>41 ч. 3 мин. 50 сек.</t>
+    <t>41 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -509,7 +509,7 @@
     <t>butcherqq</t>
   </si>
   <si>
-    <t>40 ч. 11 мин. 3 сек.</t>
+    <t>40 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -599,7 +599,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>37 ч. 7 мин. 41 сек.</t>
+    <t>37 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -653,7 +653,7 @@
     <t>Aleks85</t>
   </si>
   <si>
-    <t>35 ч. 10 мин. 1 сек.</t>
+    <t>35 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -662,7 +662,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 34 сек.</t>
+    <t>35 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -671,7 +671,7 @@
     <t>ArtHare</t>
   </si>
   <si>
-    <t>35 ч. 4 мин. 3 сек.</t>
+    <t>35 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -680,7 +680,7 @@
     <t>A-Cor</t>
   </si>
   <si>
-    <t>35 ч. 3 мин. 5 сек.</t>
+    <t>35 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -689,7 +689,7 @@
     <t>maikttt</t>
   </si>
   <si>
-    <t>34 ч. 57 мин. 5 сек.</t>
+    <t>34 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -725,7 +725,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>33 ч. 56 мин. 0 сек.</t>
+    <t>33 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -770,7 +770,7 @@
     <t>Radheart</t>
   </si>
   <si>
-    <t>31 ч. 59 мин. 9 сек.</t>
+    <t>31 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -815,7 +815,7 @@
     <t>s0lnyshk0</t>
   </si>
   <si>
-    <t>30 ч. 2 мин. 36 сек.</t>
+    <t>30 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -833,7 +833,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>29 ч. 38 мин. 9 сек.</t>
+    <t>29 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -860,7 +860,7 @@
     <t>Yakadzum</t>
   </si>
   <si>
-    <t>29 ч. 22 мин. 7 сек.</t>
+    <t>29 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -878,7 +878,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 35 сек.</t>
+    <t>29 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -923,7 +923,7 @@
     <t>YLLIACTbIu</t>
   </si>
   <si>
-    <t>27 ч. 6 мин. 50 сек.</t>
+    <t>27 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -986,7 +986,7 @@
     <t>NIN</t>
   </si>
   <si>
-    <t>26 ч. 15 мин. 7 сек.</t>
+    <t>26 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>106</t>
@@ -1013,7 +1013,7 @@
     <t>Sady</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 19 сек.</t>
+    <t>25 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1031,7 +1031,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>24 ч. 6 мин. 25 сек.</t>
+    <t>24 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -1085,7 +1085,7 @@
     <t>Alanik</t>
   </si>
   <si>
-    <t>23 ч. 9 мин. 20 сек.</t>
+    <t>23 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1121,7 +1121,7 @@
     <t>epicprime</t>
   </si>
   <si>
-    <t>22 ч. 5 мин. 46 сек.</t>
+    <t>22 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1148,7 +1148,7 @@
     <t>nullfasss22</t>
   </si>
   <si>
-    <t>21 ч. 39 мин. 5 сек.</t>
+    <t>21 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1157,7 +1157,7 @@
     <t>8788</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 15 сек.</t>
+    <t>21 ч. 07 мин. 15 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1166,7 +1166,7 @@
     <t>_Reactive</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 35 сек.</t>
+    <t>21 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>126</t>
@@ -1202,7 +1202,7 @@
     <t>Богданов</t>
   </si>
   <si>
-    <t>20 ч. 13 мин. 9 сек.</t>
+    <t>20 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1265,7 +1265,7 @@
     <t>Ggegeg</t>
   </si>
   <si>
-    <t>19 ч. 23 мин. 0 сек.</t>
+    <t>19 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1346,7 +1346,7 @@
     <t>vaihayasa</t>
   </si>
   <si>
-    <t>18 ч. 25 мин. 4 сек.</t>
+    <t>18 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1391,7 +1391,7 @@
     <t>AvrilLavigne</t>
   </si>
   <si>
-    <t>17 ч. 15 мин. 3 сек.</t>
+    <t>17 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>151</t>
@@ -1400,7 +1400,7 @@
     <t>Reflex10n</t>
   </si>
   <si>
-    <t>17 ч. 12 мин. 4 сек.</t>
+    <t>17 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1418,7 +1418,7 @@
     <t>grismond</t>
   </si>
   <si>
-    <t>17 ч. 7 мин. 19 сек.</t>
+    <t>17 ч. 07 мин. 19 сек.</t>
   </si>
   <si>
     <t>154</t>
@@ -1427,7 +1427,7 @@
     <t>Andruhas</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 15 сек.</t>
+    <t>17 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1445,7 +1445,7 @@
     <t>JohnStone</t>
   </si>
   <si>
-    <t>16 ч. 50 мин. 1 сек.</t>
+    <t>16 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1490,7 +1490,7 @@
     <t>ВкусВетра</t>
   </si>
   <si>
-    <t>16 ч. 22 мин. 1 сек.</t>
+    <t>16 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1517,7 +1517,7 @@
     <t>Loldet</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 46 сек.</t>
+    <t>16 ч. 09 мин. 46 сек.</t>
   </si>
   <si>
     <t>165</t>
@@ -1526,7 +1526,7 @@
     <t>Vadim_K</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 55 сек.</t>
+    <t>16 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>166</t>
@@ -1553,7 +1553,7 @@
     <t>ivixivi</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 8 сек.</t>
+    <t>15 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1562,7 +1562,7 @@
     <t>Kingwords</t>
   </si>
   <si>
-    <t>15 ч. 33 мин. 6 сек.</t>
+    <t>15 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1571,7 +1571,7 @@
     <t>daxundaintravel</t>
   </si>
   <si>
-    <t>15 ч. 30 мин. 3 сек.</t>
+    <t>15 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1652,7 +1652,7 @@
     <t>CyrCyr</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 9 сек.</t>
+    <t>15 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1661,7 +1661,7 @@
     <t>Glavredzlovred</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 54 сек.</t>
+    <t>15 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1706,7 +1706,7 @@
     <t>M87</t>
   </si>
   <si>
-    <t>14 ч. 42 мин. 2 сек.</t>
+    <t>14 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1778,7 +1778,7 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>14 ч. 16 мин. 0 сек.</t>
+    <t>14 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1787,7 +1787,7 @@
     <t>Reijaff</t>
   </si>
   <si>
-    <t>14 ч. 15 мин. 2 сек.</t>
+    <t>14 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1814,7 +1814,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>14 ч. 4 мин. 37 сек.</t>
+    <t>14 ч. 04 мин. 37 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1895,7 +1895,7 @@
     <t>barto123</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 43 сек.</t>
+    <t>13 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1904,7 +1904,7 @@
     <t>HeLLios</t>
   </si>
   <si>
-    <t>13 ч. 6 мин. 16 сек.</t>
+    <t>13 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -1913,7 +1913,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 30 сек.</t>
+    <t>13 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1940,7 +1940,7 @@
     <t>azatik888</t>
   </si>
   <si>
-    <t>12 ч. 41 мин. 9 сек.</t>
+    <t>12 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1967,7 +1967,7 @@
     <t>al1as</t>
   </si>
   <si>
-    <t>12 ч. 35 мин. 2 сек.</t>
+    <t>12 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1994,7 +1994,7 @@
     <t>psixodyb</t>
   </si>
   <si>
-    <t>12 ч. 26 мин. 4 сек.</t>
+    <t>12 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -2039,7 +2039,7 @@
     <t>Zzzuzuka</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 1 сек.</t>
+    <t>12 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>223</t>
@@ -2057,7 +2057,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 15 сек.</t>
+    <t>12 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>225</t>
@@ -2066,7 +2066,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 35 сек.</t>
+    <t>12 ч. 02 мин. 35 сек.</t>
   </si>
   <si>
     <t>226</t>
@@ -2084,7 +2084,7 @@
     <t>Grizzly284</t>
   </si>
   <si>
-    <t>11 ч. 55 мин. 0 сек.</t>
+    <t>11 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2183,7 +2183,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 48 сек.</t>
+    <t>11 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2192,7 +2192,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 41 сек.</t>
+    <t>11 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2201,7 +2201,7 @@
     <t>ifer</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 22 сек.</t>
+    <t>11 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2210,7 +2210,7 @@
     <t>Russel_Poltava</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 15 сек.</t>
+    <t>11 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2219,7 +2219,7 @@
     <t>MachoMaNNN</t>
   </si>
   <si>
-    <t>10 ч. 57 мин. 1 сек.</t>
+    <t>10 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2264,7 +2264,7 @@
     <t>lep</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 0 сек.</t>
+    <t>10 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -2282,7 +2282,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>10 ч. 28 мин. 5 сек.</t>
+    <t>10 ч. 28 мин. 05 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2291,7 +2291,7 @@
     <t>paul566576</t>
   </si>
   <si>
-    <t>10 ч. 24 мин. 6 сек.</t>
+    <t>10 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2309,7 +2309,7 @@
     <t>maccoll</t>
   </si>
   <si>
-    <t>10 ч. 12 мин. 8 сек.</t>
+    <t>10 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>253</t>
@@ -2327,7 +2327,7 @@
     <t>Selica</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 44 сек.</t>
+    <t>10 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2336,7 +2336,7 @@
     <t>tmpd</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 3 сек.</t>
+    <t>10 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2345,7 +2345,7 @@
     <t>moonwwwind</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 17 сек.</t>
+    <t>10 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2354,7 +2354,7 @@
     <t>Althea_Fullmoon</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 19 сек.</t>
+    <t>10 ч. 02 мин. 19 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2399,7 +2399,7 @@
     <t>gomozek</t>
   </si>
   <si>
-    <t>9 ч. 45 мин. 1 сек.</t>
+    <t>9 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2408,7 +2408,7 @@
     <t>komaz</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 1 сек.</t>
+    <t>9 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2588,7 +2588,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 1 сек.</t>
+    <t>9 ч. 06 мин. 01 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2597,7 +2597,7 @@
     <t>klnmln</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 43 сек.</t>
+    <t>9 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>285</t>
@@ -2606,7 +2606,7 @@
     <t>Lakira</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 9 сек.</t>
+    <t>9 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>286</t>
@@ -2615,7 +2615,7 @@
     <t>razko</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 4 сек.</t>
+    <t>9 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>287</t>
@@ -2624,7 +2624,7 @@
     <t>puchkarito</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 16 сек.</t>
+    <t>9 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>288</t>
@@ -2633,7 +2633,7 @@
     <t>keshanavzlet</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 9 сек.</t>
+    <t>9 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2651,7 +2651,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>8 ч. 57 мин. 5 сек.</t>
+    <t>8 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>291</t>
@@ -2669,7 +2669,7 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>8 ч. 55 мин. 0 сек.</t>
+    <t>8 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2750,7 +2750,7 @@
     <t>smith-</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 1 сек.</t>
+    <t>8 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>302</t>
@@ -2777,7 +2777,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>8 ч. 35 мин. 9 сек.</t>
+    <t>8 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>305</t>
@@ -2813,7 +2813,7 @@
     <t>sndbox</t>
   </si>
   <si>
-    <t>8 ч. 26 мин. 4 сек.</t>
+    <t>8 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>309</t>
@@ -2867,7 +2867,7 @@
     <t>pomponchic</t>
   </si>
   <si>
-    <t>8 ч. 21 мин. 5 сек.</t>
+    <t>8 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>315</t>
@@ -2894,7 +2894,7 @@
     <t>kulinich</t>
   </si>
   <si>
-    <t>8 ч. 17 мин. 8 сек.</t>
+    <t>8 ч. 17 мин. 08 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2930,7 +2930,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 51 сек.</t>
+    <t>8 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>322</t>
@@ -2939,7 +2939,7 @@
     <t>rar17</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 47 сек.</t>
+    <t>8 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>323</t>
@@ -2948,7 +2948,7 @@
     <t>nyashermyasher</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 14 сек.</t>
+    <t>8 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2957,7 +2957,7 @@
     <t>неторопыжка</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 48 сек.</t>
+    <t>8 ч. 05 мин. 48 сек.</t>
   </si>
   <si>
     <t>325</t>
@@ -2966,7 +2966,7 @@
     <t>violaint</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 40 сек.</t>
+    <t>8 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>326</t>
@@ -2975,7 +2975,7 @@
     <t>gosknyaz</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 30 сек.</t>
+    <t>8 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>327</t>
@@ -2984,7 +2984,7 @@
     <t>KaliaN-93RUS</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 21 сек.</t>
+    <t>8 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>328</t>
@@ -2993,7 +2993,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 44 сек.</t>
+    <t>8 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>329</t>
@@ -3002,7 +3002,7 @@
     <t>acter</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 27 сек.</t>
+    <t>8 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>330</t>
@@ -3011,7 +3011,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 18 сек.</t>
+    <t>8 ч. 01 мин. 18 сек.</t>
   </si>
   <si>
     <t>331</t>
@@ -3020,7 +3020,7 @@
     <t>ZeeVi</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 0 сек.</t>
+    <t>8 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>332</t>
@@ -3029,7 +3029,7 @@
     <t>rapiru</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 38 сек.</t>
+    <t>8 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>333</t>
@@ -3038,7 +3038,7 @@
     <t>Z-i-b-e-r-t</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 20 сек.</t>
+    <t>8 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>334</t>
@@ -3056,7 +3056,7 @@
     <t>hotshot</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 2 сек.</t>
+    <t>7 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>336</t>
@@ -3101,7 +3101,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>7 ч. 47 мин. 8 сек.</t>
+    <t>7 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>341</t>
@@ -3110,7 +3110,7 @@
     <t>Azurit</t>
   </si>
   <si>
-    <t>7 ч. 45 мин. 4 сек.</t>
+    <t>7 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>342</t>
@@ -3191,7 +3191,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 7 сек.</t>
+    <t>7 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>351</t>
@@ -3230,7 +3230,7 @@
     <t>Muwka_C_CeBePa</t>
   </si>
   <si>
-    <t>7 ч. 26 мин. 8 сек.</t>
+    <t>7 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3284,7 +3284,7 @@
     <t>batkovich</t>
   </si>
   <si>
-    <t>7 ч. 18 мин. 9 сек.</t>
+    <t>7 ч. 18 мин. 09 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3302,7 +3302,7 @@
     <t>LevShumilov</t>
   </si>
   <si>
-    <t>7 ч. 16 мин. 6 сек.</t>
+    <t>7 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3365,7 +3365,7 @@
     <t>kvdum</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 54 сек.</t>
+    <t>7 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -3374,7 +3374,7 @@
     <t>motivation</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 14 сек.</t>
+    <t>7 ч. 01 мин. 14 сек.</t>
   </si>
   <si>
     <t>372</t>
@@ -3383,7 +3383,7 @@
     <t>SVolin99</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 8 сек.</t>
+    <t>7 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3392,7 +3392,7 @@
     <t>plop</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 56 сек.</t>
+    <t>7 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>374</t>
@@ -3401,7 +3401,7 @@
     <t>Bucky</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 31 сек.</t>
+    <t>7 ч. 00 мин. 31 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3410,7 +3410,7 @@
     <t>Lost-Control</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 7 сек.</t>
+    <t>7 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>376</t>
@@ -3428,7 +3428,7 @@
     <t>Аромат</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 2 сек.</t>
+    <t>6 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -3446,7 +3446,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>6 ч. 56 мин. 1 сек.</t>
+    <t>6 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>380</t>
@@ -3455,7 +3455,7 @@
     <t>heavy_ezh</t>
   </si>
   <si>
-    <t>6 ч. 55 мин. 4 сек.</t>
+    <t>6 ч. 55 мин. 04 сек.</t>
   </si>
   <si>
     <t>381</t>
@@ -3491,7 +3491,7 @@
     <t>inteltone</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 5 сек.</t>
+    <t>6 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>385</t>
@@ -3527,7 +3527,7 @@
     <t>expollux</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 4 сек.</t>
+    <t>6 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>389</t>
@@ -3644,7 +3644,7 @@
     <t>Mc2000</t>
   </si>
   <si>
-    <t>6 ч. 36 мин. 1 сек.</t>
+    <t>6 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>402</t>
@@ -3743,7 +3743,7 @@
     <t>kastiell90</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 3 сек.</t>
+    <t>6 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3788,7 +3788,7 @@
     <t>ReXofuS</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>418</t>
@@ -3797,7 +3797,7 @@
     <t>Vk625</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 35 сек.</t>
+    <t>6 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>419</t>
@@ -3806,7 +3806,7 @@
     <t>mavdix</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 55 сек.</t>
+    <t>6 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>420</t>
@@ -3815,7 +3815,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 14 сек.</t>
+    <t>6 ч. 06 мин. 14 сек.</t>
   </si>
   <si>
     <t>421</t>
@@ -3824,7 +3824,7 @@
     <t>Verhovyh</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 25 сек.</t>
+    <t>6 ч. 05 мин. 25 сек.</t>
   </si>
   <si>
     <t>422</t>
@@ -3833,7 +3833,7 @@
     <t>viten</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 24 сек.</t>
+    <t>6 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>423</t>
@@ -3842,7 +3842,7 @@
     <t>maks-</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 16 сек.</t>
+    <t>6 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>424</t>
@@ -3851,7 +3851,7 @@
     <t>AHTOH</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 34 сек.</t>
+    <t>6 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>425</t>
@@ -3860,7 +3860,7 @@
     <t>Guepard</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 14 сек.</t>
+    <t>6 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>426</t>
@@ -3869,7 +3869,7 @@
     <t>AlexSIBER</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 4 сек.</t>
+    <t>6 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>427</t>
@@ -3968,7 +3968,7 @@
     <t>sav1</t>
   </si>
   <si>
-    <t>5 ч. 33 мин. 3 сек.</t>
+    <t>5 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>438</t>
@@ -4004,7 +4004,7 @@
     <t>81243534355</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 2 сек.</t>
+    <t>5 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>442</t>
@@ -4058,7 +4058,7 @@
     <t>fallen_dante</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 5 сек.</t>
+    <t>5 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>448</t>
@@ -4067,7 +4067,7 @@
     <t>centryfuga</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 8 сек.</t>
+    <t>5 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>449</t>
@@ -4076,7 +4076,7 @@
     <t>oyasumi</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 24 сек.</t>
+    <t>5 ч. 06 мин. 24 сек.</t>
   </si>
   <si>
     <t>450</t>
@@ -4085,7 +4085,7 @@
     <t>needsuicide</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 12 сек.</t>
+    <t>5 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>451</t>
@@ -4094,7 +4094,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 24 сек.</t>
+    <t>5 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>452</t>
@@ -4157,7 +4157,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 0 сек.</t>
+    <t>4 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>459</t>
@@ -4175,7 +4175,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 4 сек.</t>
+    <t>4 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>461</t>
@@ -4238,7 +4238,7 @@
     <t>vulpinex</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 0 сек.</t>
+    <t>4 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>468</t>
@@ -4265,7 +4265,7 @@
     <t>beb0p</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 8 сек.</t>
+    <t>4 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>471</t>
@@ -4292,7 +4292,7 @@
     <t>_dp_</t>
   </si>
   <si>
-    <t>4 ч. 25 мин. 5 сек.</t>
+    <t>4 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -4301,7 +4301,7 @@
     <t>Евсеев</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 6 сек.</t>
+    <t>4 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>475</t>
@@ -4310,7 +4310,7 @@
     <t>Oyvse</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 9 сек.</t>
+    <t>4 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -4328,7 +4328,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 2 сек.</t>
+    <t>4 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>478</t>
@@ -4373,7 +4373,7 @@
     <t>Толик_Цой</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 25 сек.</t>
+    <t>4 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4382,7 +4382,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 1 сек.</t>
+    <t>3 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4400,7 +4400,7 @@
     <t>forsaZ</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 8 сек.</t>
+    <t>3 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -4436,7 +4436,7 @@
     <t>art_gl</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 8 сек.</t>
+    <t>3 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>490</t>
@@ -4490,7 +4490,7 @@
     <t>Ivchik</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 56 сек.</t>
+    <t>3 ч. 09 мин. 56 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4499,7 +4499,7 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 24 сек.</t>
+    <t>3 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>497</t>
@@ -4508,7 +4508,7 @@
     <t>Noob228</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 7 сек.</t>
+    <t>2 ч. 22 мин. 07 сек.</t>
   </si>
 </sst>
 </file>
